--- a/TravelAgencyApp/Data/KeywordDrivenData.xlsx
+++ b/TravelAgencyApp/Data/KeywordDrivenData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNG06\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNG06\Documents\Visual Studio Code\Amaris\TravelAgencyApp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="TC01" sheetId="1" r:id="rId2"/>
     <sheet name="DataValidation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Keyword</t>
   </si>
@@ -71,13 +71,92 @@
   </si>
   <si>
     <t>GoToPage</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>TagName</t>
+  </si>
+  <si>
+    <t>LinkText</t>
+  </si>
+  <si>
+    <t>Parameter 1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Navigate to page.
+Parameter: url</t>
+  </si>
+  <si>
+    <t>Perform Action: Click</t>
+  </si>
+  <si>
+    <t>Perform Action: type text to Fields
+Parameter: text to type</t>
+  </si>
+  <si>
+    <t>Perform Action: Clear and type text to Fields
+Parameter: text to type</t>
+  </si>
+  <si>
+    <t>Dynamic wait for element to display</t>
+  </si>
+  <si>
+    <t>Dynamic wait for element to display
+Parameter: timeout</t>
+  </si>
+  <si>
+    <t>Find by ID</t>
+  </si>
+  <si>
+    <t>Find by Name</t>
+  </si>
+  <si>
+    <t>Find by Css selector</t>
+  </si>
+  <si>
+    <t>Find by Xpath</t>
+  </si>
+  <si>
+    <t>Find by Class Name</t>
+  </si>
+  <si>
+    <t>Find by Tag Name</t>
+  </si>
+  <si>
+    <t>Find by Link Text</t>
+  </si>
+  <si>
+    <t>Navigate to gooogle.com</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Initialize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +164,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,17 +203,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,6 +272,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C10" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="B2:C10"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Keyword list" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="F2:G9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="LocatorType" dataDxfId="1"/>
+    <tableColumn id="2" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,15 +573,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="6" width="27.44140625" customWidth="1"/>
@@ -434,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -444,24 +615,44 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DataValidation!B3:B9</xm:f>
+            <xm:f>DataValidation!$F$3:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C1 C212:C1048576</xm:sqref>
+          <xm:sqref>D3:D1048576 D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DataValidation!$B$3:$B$9</xm:f>
+            <xm:f>DataValidation!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C211</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -471,59 +662,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TravelAgencyApp/Data/KeywordDrivenData.xlsx
+++ b/TravelAgencyApp/Data/KeywordDrivenData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Keyword</t>
   </si>
@@ -118,38 +118,63 @@
     <t>Dynamic wait for element to display</t>
   </si>
   <si>
+    <t>Find by ID</t>
+  </si>
+  <si>
+    <t>Find by Name</t>
+  </si>
+  <si>
+    <t>Find by Css selector</t>
+  </si>
+  <si>
+    <t>Find by Xpath</t>
+  </si>
+  <si>
+    <t>Find by Class Name</t>
+  </si>
+  <si>
+    <t>Find by Tag Name</t>
+  </si>
+  <si>
+    <t>Find by Link Text</t>
+  </si>
+  <si>
+    <t>Navigate to gooogle.com</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>WaitUntilElementIsInvisibled</t>
+  </si>
+  <si>
+    <t>Dynamic wait for element to disapear</t>
+  </si>
+  <si>
+    <t>WaitUntilElementIsInvisibledWithTime</t>
+  </si>
+  <si>
     <t>Dynamic wait for element to display
-Parameter: timeout</t>
-  </si>
-  <si>
-    <t>Find by ID</t>
-  </si>
-  <si>
-    <t>Find by Name</t>
-  </si>
-  <si>
-    <t>Find by Css selector</t>
-  </si>
-  <si>
-    <t>Find by Xpath</t>
-  </si>
-  <si>
-    <t>Find by Class Name</t>
-  </si>
-  <si>
-    <t>Find by Tag Name</t>
-  </si>
-  <si>
-    <t>Find by Link Text</t>
-  </si>
-  <si>
-    <t>Navigate to gooogle.com</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>Initialize</t>
+Parameter: time out in seconds</t>
+  </si>
+  <si>
+    <t>Dynamic wait for element to disapear
+Parameter: time out in seconds</t>
+  </si>
+  <si>
+    <t>lst-ib</t>
+  </si>
+  <si>
+    <t>ahiahi</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>select search button</t>
+  </si>
+  <si>
+    <t>//input[@value='Tìm với Google' and @class='lsb']</t>
   </si>
 </sst>
 </file>
@@ -195,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -209,8 +234,96 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="0"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -219,21 +332,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -242,9 +373,49 @@
   <dxfs count="7">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -254,9 +425,49 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -275,8 +486,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C10" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B2:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G29" totalsRowShown="0">
+  <autoFilter ref="A1:G29"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="TCID"/>
+    <tableColumn id="2" name="TestStep"/>
+    <tableColumn id="3" name="Keyword"/>
+    <tableColumn id="4" name="LocatorType"/>
+    <tableColumn id="5" name="LocatorValue"/>
+    <tableColumn id="6" name="Parameter 1"/>
+    <tableColumn id="7" name="Parameter 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C11" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="B2:C11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Keyword list" dataDxfId="5"/>
     <tableColumn id="2" name="Description" dataDxfId="4"/>
@@ -285,7 +512,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="F2:G9"/>
   <tableColumns count="2">
@@ -573,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +811,8 @@
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="6" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,8 +843,14 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,21 +858,47 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -646,11 +906,11 @@
           <x14:formula1>
             <xm:f>DataValidation!$F$3:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D1048576 D1</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DataValidation!$B$3:$B$10</xm:f>
+            <xm:f>DataValidation!$B$3:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -662,10 +922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,120 +938,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TravelAgencyApp/Data/KeywordDrivenData.xlsx
+++ b/TravelAgencyApp/Data/KeywordDrivenData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15516" windowHeight="3708" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="TestSuite" sheetId="2" r:id="rId1"/>
     <sheet name="TC01" sheetId="1" r:id="rId2"/>
     <sheet name="DataValidation" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Keyword</t>
   </si>
@@ -100,21 +100,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Navigate to page.
-Parameter: url</t>
-  </si>
-  <si>
     <t>Perform Action: Click</t>
   </si>
   <si>
-    <t>Perform Action: type text to Fields
-Parameter: text to type</t>
-  </si>
-  <si>
-    <t>Perform Action: Clear and type text to Fields
-Parameter: text to type</t>
-  </si>
-  <si>
     <t>Dynamic wait for element to display</t>
   </si>
   <si>
@@ -139,12 +127,6 @@
     <t>Find by Link Text</t>
   </si>
   <si>
-    <t>Navigate to gooogle.com</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
     <t>WaitUntilElementIsInvisibled</t>
   </si>
   <si>
@@ -154,27 +136,97 @@
     <t>WaitUntilElementIsInvisibledWithTime</t>
   </si>
   <si>
-    <t>Dynamic wait for element to display
-Parameter: time out in seconds</t>
-  </si>
-  <si>
-    <t>Dynamic wait for element to disapear
-Parameter: time out in seconds</t>
-  </si>
-  <si>
-    <t>lst-ib</t>
-  </si>
-  <si>
-    <t>ahiahi</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
-    <t>select search button</t>
-  </si>
-  <si>
-    <t>//input[@value='Tìm với Google' and @class='lsb']</t>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Navigate to page.</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>text to type</t>
+  </si>
+  <si>
+    <t>time out in seconds</t>
+  </si>
+  <si>
+    <t>Perform Action: type text to Fields</t>
+  </si>
+  <si>
+    <t>Perform Action: Clear and type text to Fields</t>
+  </si>
+  <si>
+    <t>https://mnguyen3@amaris.com:Amaris2017@qaarp.amaris.com/TravelAgency/create</t>
+  </si>
+  <si>
+    <t>s2id_autogen3</t>
+  </si>
+  <si>
+    <t>nguyen manh dong</t>
+  </si>
+  <si>
+    <t>//input[@id='radio_Flight']/following-sibling::div</t>
+  </si>
+  <si>
+    <t>select Plane radio</t>
+  </si>
+  <si>
+    <t>//div[@id='FromDateTimeAllModule']/input[@class='datepickerinput form-control']</t>
+  </si>
+  <si>
+    <t>fill Start Date</t>
+  </si>
+  <si>
+    <t>fill End Date</t>
+  </si>
+  <si>
+    <t>//div[@id='ToDateTimeAllModule']/input[@class='datepickerinput form-control']</t>
+  </si>
+  <si>
+    <t>select From Place</t>
+  </si>
+  <si>
+    <t>select2-chosen-4</t>
+  </si>
+  <si>
+    <t>Search From Place</t>
+  </si>
+  <si>
+    <t>s2id_autogen4_search</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>select2-chosen-5</t>
+  </si>
+  <si>
+    <t>s2id_autogen5_search</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>select I'm in hurry button</t>
+  </si>
+  <si>
+    <t>btnSubmitWithoutInformation</t>
+  </si>
+  <si>
+    <t>//div[@class='blockUI blockOverlay']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to </t>
+  </si>
+  <si>
+    <t>30/10/2017</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
   </si>
 </sst>
 </file>
@@ -220,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -229,11 +281,190 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -241,85 +472,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -332,14 +488,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -353,24 +505,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -429,9 +611,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -449,7 +629,7 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -471,6 +651,78 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,15 +738,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28"/>
   <tableColumns count="7">
     <tableColumn id="1" name="TCID"/>
     <tableColumn id="2" name="TestStep"/>
     <tableColumn id="3" name="Keyword"/>
     <tableColumn id="4" name="LocatorType"/>
     <tableColumn id="5" name="LocatorValue"/>
-    <tableColumn id="6" name="Parameter 1"/>
+    <tableColumn id="6" name="Parameter 1" dataDxfId="12"/>
     <tableColumn id="7" name="Parameter 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -502,24 +754,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C11" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B2:C11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Keyword list" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:D11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Keyword list" dataDxfId="6"/>
+    <tableColumn id="2" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" name="Parameter" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="F2:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:C26" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B19:C26"/>
   <tableColumns count="2">
     <tableColumn id="1" name="LocatorType" dataDxfId="1"/>
     <tableColumn id="2" name="Description" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -789,7 +1042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,9 +1064,9 @@
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,7 +1085,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G1" t="s">
@@ -844,33 +1097,27 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -878,16 +1125,181 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -904,15 +1316,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DataValidation!$F$3:$F$9</xm:f>
+            <xm:f>DataValidation!$B$3:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DataValidation!$B$3:$B$11</xm:f>
+            <xm:f>DataValidation!$B$20:$B$26</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -922,145 +1334,186 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
